--- a/Frishman.csv.xlsx
+++ b/Frishman.csv.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A473123-3100-4B7F-AB45-42C9B72EDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14865" windowHeight="8580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Product</t>
   </si>
@@ -37,37 +43,13 @@
   </si>
   <si>
     <t>Watermelon</t>
-  </si>
-  <si>
-    <t>Coke</t>
-  </si>
-  <si>
-    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0"/>
-  </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -84,9 +66,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -103,99 +88,430 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40"/>
     <col min="2" max="2" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-  </row>
-    <row r="2" spans="1:2">
-  </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="2">
-        <v>14.00000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>9.00000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>12.00000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>6.00000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>26.00000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10.00000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>12.00000000</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -203,24 +519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
